--- a/apps/load_data/2017/07/PLMOVMAE.xlsx
+++ b/apps/load_data/2017/07/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2017\HHY0717\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2017\HHY0717\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A5E41AD-C584-4C0E-80F2-28063D906506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19918646-F079-497B-ADFD-A18CB366452C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$250</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$250</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10242" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10230" uniqueCount="2709">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6989,9 +6990,6 @@
   </si>
   <si>
     <t>0114A         1</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1047    131966    1319661054     30000     300001081    296920    2969201082    159880    1598802001         0     386002006     40400     404002026    215906    2159062027      3068      30682029      1500      15002086      2500      2500</t>
@@ -8158,7 +8156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -8998,10 +8996,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC256" sqref="AC256"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -46076,12 +46076,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>104</v>
       </c>
@@ -46146,10 +46141,10 @@
         <v>112</v>
       </c>
       <c r="BH209" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="BI209" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="BI209" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>115</v>
@@ -46161,7 +46156,7 @@
         <v>156</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>119</v>
@@ -46182,13 +46177,13 @@
         <v>108</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2327</v>
-      </c>
-      <c r="CE209" s="1" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="210" spans="1:83" x14ac:dyDescent="0.25">
@@ -46223,19 +46218,19 @@
         <v>93</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="N210" s="1" t="s">
+      <c r="O210" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P210" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="O210" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P210" s="1" t="s">
-        <v>2332</v>
       </c>
       <c r="Q210" s="3">
         <v>27241</v>
@@ -46264,12 +46259,7 @@
       <c r="AB210" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>104</v>
       </c>
@@ -46316,7 +46306,7 @@
         <v>108</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BB210" s="1">
         <v>7</v>
@@ -46334,10 +46324,10 @@
         <v>112</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>115</v>
@@ -46349,13 +46339,13 @@
         <v>99</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BS210" s="3">
         <v>36949</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>119</v>
@@ -46379,13 +46369,13 @@
         <v>108</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="CD210" s="1" t="s">
         <v>1917</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -46420,19 +46410,19 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="N211" s="1" t="s">
+      <c r="O211" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P211" s="1" t="s">
         <v>2342</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>2343</v>
       </c>
       <c r="Q211" s="3">
         <v>25223</v>
@@ -46461,12 +46451,7 @@
       <c r="AB211" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>104</v>
       </c>
@@ -46513,7 +46498,7 @@
         <v>108</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BB211" s="1">
         <v>7</v>
@@ -46534,10 +46519,10 @@
         <v>112</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>115</v>
@@ -46549,13 +46534,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BS211" s="3">
         <v>36825</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>119</v>
@@ -46579,13 +46564,13 @@
         <v>108</v>
       </c>
       <c r="CC211" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CD211" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="CD211" s="1" t="s">
+      <c r="CE211" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="CE211" s="1" t="s">
-        <v>2351</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -46620,19 +46605,19 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2353</v>
       </c>
-      <c r="N212" s="1" t="s">
+      <c r="O212" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P212" s="1" t="s">
         <v>2354</v>
-      </c>
-      <c r="O212" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>2355</v>
       </c>
       <c r="Q212" s="3">
         <v>27018</v>
@@ -46658,12 +46643,7 @@
       <c r="AA212" s="1">
         <v>0</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>104</v>
       </c>
@@ -46713,7 +46693,7 @@
         <v>108</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BB212" s="1">
         <v>7</v>
@@ -46731,7 +46711,7 @@
         <v>112</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1116</v>
@@ -46743,7 +46723,7 @@
         <v>103</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>119</v>
@@ -46761,13 +46741,13 @@
         <v>108</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -46802,19 +46782,19 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="N213" s="1" t="s">
+      <c r="O213" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P213" s="1" t="s">
         <v>2363</v>
-      </c>
-      <c r="O213" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P213" s="1" t="s">
-        <v>2364</v>
       </c>
       <c r="Q213" s="3">
         <v>29037</v>
@@ -46840,12 +46820,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>104</v>
       </c>
@@ -46895,7 +46870,7 @@
         <v>108</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BB213" s="1">
         <v>7</v>
@@ -46913,10 +46888,10 @@
         <v>112</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2366</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2367</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>115</v>
@@ -46925,7 +46900,7 @@
         <v>103</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>119</v>
@@ -46946,10 +46921,10 @@
         <v>679</v>
       </c>
       <c r="CD213" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="CE213" s="1" t="s">
         <v>2369</v>
-      </c>
-      <c r="CE213" s="1" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -46984,19 +46959,19 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2372</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P214" s="1" t="s">
         <v>2373</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>2374</v>
       </c>
       <c r="Q214" s="3">
         <v>26647</v>
@@ -47022,12 +46997,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>104</v>
       </c>
@@ -47077,7 +47047,7 @@
         <v>108</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BB214" s="1">
         <v>7</v>
@@ -47095,10 +47065,10 @@
         <v>112</v>
       </c>
       <c r="BH214" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="BI214" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="BI214" s="1" t="s">
-        <v>2377</v>
       </c>
       <c r="BM214" s="1" t="s">
         <v>115</v>
@@ -47107,7 +47077,7 @@
         <v>103</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>119</v>
@@ -47125,13 +47095,13 @@
         <v>108</v>
       </c>
       <c r="CC214" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="CD214" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2379</v>
-      </c>
-      <c r="CD214" s="1" t="s">
-        <v>2379</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2380</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -47166,19 +47136,19 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2381</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="N215" s="1" t="s">
+      <c r="O215" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P215" s="1" t="s">
         <v>2383</v>
-      </c>
-      <c r="O215" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P215" s="1" t="s">
-        <v>2384</v>
       </c>
       <c r="Q215" s="3">
         <v>25405</v>
@@ -47210,12 +47180,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>104</v>
       </c>
@@ -47262,7 +47227,7 @@
         <v>108</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BB215" s="1">
         <v>7</v>
@@ -47271,7 +47236,7 @@
         <v>17</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>110</v>
@@ -47283,7 +47248,7 @@
         <v>112</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>264</v>
@@ -47298,13 +47263,13 @@
         <v>116</v>
       </c>
       <c r="BR215" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BS215" s="3">
         <v>35243</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>119</v>
@@ -47322,13 +47287,13 @@
         <v>108</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -47363,19 +47328,19 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="N216" s="1" t="s">
+      <c r="O216" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P216" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="O216" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P216" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="Q216" s="3">
         <v>28845</v>
@@ -47401,12 +47366,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>104</v>
       </c>
@@ -47456,7 +47416,7 @@
         <v>108</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BB216" s="1">
         <v>7</v>
@@ -47474,7 +47434,7 @@
         <v>112</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>1116</v>
@@ -47486,7 +47446,7 @@
         <v>103</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>119</v>
@@ -47504,13 +47464,13 @@
         <v>108</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2401</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -47545,19 +47505,19 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="N217" s="1" t="s">
+      <c r="O217" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P217" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="O217" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P217" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="Q217" s="3">
         <v>21425</v>
@@ -47583,12 +47543,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>104</v>
       </c>
@@ -47638,7 +47593,7 @@
         <v>108</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BB217" s="1">
         <v>7</v>
@@ -47656,7 +47611,7 @@
         <v>112</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>911</v>
@@ -47671,7 +47626,7 @@
         <v>156</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>119</v>
@@ -47689,13 +47644,13 @@
         <v>108</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2411</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -47730,19 +47685,19 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="N218" s="1" t="s">
+      <c r="O218" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P218" s="1" t="s">
         <v>2415</v>
-      </c>
-      <c r="O218" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P218" s="1" t="s">
-        <v>2416</v>
       </c>
       <c r="Q218" s="3">
         <v>23039</v>
@@ -47768,12 +47723,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>104</v>
       </c>
@@ -47820,7 +47770,7 @@
         <v>108</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="BB218" s="1">
         <v>7</v>
@@ -47829,7 +47779,7 @@
         <v>17</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>110</v>
@@ -47841,10 +47791,10 @@
         <v>112</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>115</v>
@@ -47856,13 +47806,13 @@
         <v>212</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BS218" s="3">
         <v>34307</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>119</v>
@@ -47880,13 +47830,13 @@
         <v>108</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>445</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -47921,19 +47871,19 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="N219" s="1" t="s">
+      <c r="O219" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P219" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="O219" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P219" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="Q219" s="3">
         <v>23286</v>
@@ -47962,12 +47912,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>104</v>
       </c>
@@ -48017,7 +47962,7 @@
         <v>108</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BB219" s="1">
         <v>7</v>
@@ -48038,10 +47983,10 @@
         <v>112</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>115</v>
@@ -48050,7 +47995,7 @@
         <v>103</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>119</v>
@@ -48071,13 +48016,13 @@
         <v>108</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -48112,19 +48057,19 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2437</v>
       </c>
-      <c r="N220" s="1" t="s">
+      <c r="O220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P220" s="1" t="s">
         <v>2438</v>
-      </c>
-      <c r="O220" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P220" s="1" t="s">
-        <v>2439</v>
       </c>
       <c r="Q220" s="3">
         <v>26907</v>
@@ -48150,12 +48095,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2322</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>104</v>
       </c>
@@ -48202,7 +48142,7 @@
         <v>108</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BB220" s="1">
         <v>7</v>
@@ -48223,10 +48163,10 @@
         <v>112</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>115</v>
@@ -48238,13 +48178,13 @@
         <v>116</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BS220" s="3">
         <v>35950</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>119</v>
@@ -48262,13 +48202,13 @@
         <v>108</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -48303,19 +48243,19 @@
         <v>328</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P221" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="O221" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P221" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="Q221" s="3">
         <v>26349</v>
@@ -48360,7 +48300,7 @@
         <v>0</v>
       </c>
       <c r="AN221" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="AO221" s="1">
         <v>0</v>
@@ -48405,13 +48345,13 @@
         <v>112</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>119</v>
@@ -48435,10 +48375,10 @@
         <v>2208</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2455</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -48473,19 +48413,19 @@
         <v>328</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="N222" s="1" t="s">
+      <c r="O222" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P222" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="O222" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P222" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="Q222" s="3">
         <v>30589</v>
@@ -48533,7 +48473,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -48578,13 +48518,13 @@
         <v>112</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>119</v>
@@ -48605,13 +48545,13 @@
         <v>108</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -48646,19 +48586,19 @@
         <v>328</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="N223" s="1" t="s">
+      <c r="O223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P223" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="O223" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P223" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="Q223" s="3">
         <v>27354</v>
@@ -48706,7 +48646,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -48751,13 +48691,13 @@
         <v>112</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>119</v>
@@ -48778,13 +48718,13 @@
         <v>108</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2473</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -48819,19 +48759,19 @@
         <v>328</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2474</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="N224" s="1" t="s">
+      <c r="O224" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P224" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="O224" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P224" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="Q224" s="3">
         <v>13756</v>
@@ -48921,13 +48861,13 @@
         <v>112</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>119</v>
@@ -48948,10 +48888,10 @@
         <v>108</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>199</v>
@@ -48989,19 +48929,19 @@
         <v>328</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="N225" s="1" t="s">
+      <c r="O225" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P225" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="O225" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P225" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="Q225" s="3">
         <v>26074</v>
@@ -49049,7 +48989,7 @@
         <v>0</v>
       </c>
       <c r="AN225" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="AO225" s="1">
         <v>0</v>
@@ -49094,13 +49034,13 @@
         <v>112</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>119</v>
@@ -49124,13 +49064,13 @@
         <v>108</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="226" spans="1:83" x14ac:dyDescent="0.25">
@@ -49165,19 +49105,19 @@
         <v>328</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="N226" s="1" t="s">
+      <c r="O226" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P226" s="1" t="s">
         <v>2491</v>
-      </c>
-      <c r="O226" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P226" s="1" t="s">
-        <v>2492</v>
       </c>
       <c r="Q226" s="3">
         <v>28808</v>
@@ -49222,7 +49162,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -49267,13 +49207,13 @@
         <v>112</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>119</v>
@@ -49294,13 +49234,13 @@
         <v>108</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="CE226" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2401</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2497</v>
       </c>
     </row>
     <row r="227" spans="1:83" x14ac:dyDescent="0.25">
@@ -49335,10 +49275,10 @@
         <v>93</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="L227" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>223</v>
@@ -49407,7 +49347,7 @@
         <v>16</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BX227" s="1">
         <v>0</v>
@@ -49425,7 +49365,7 @@
         <v>227</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="228" spans="1:83" x14ac:dyDescent="0.25">
@@ -49460,10 +49400,10 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="L228" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>223</v>
@@ -49547,7 +49487,7 @@
         <v>227</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="229" spans="1:83" x14ac:dyDescent="0.25">
@@ -49582,19 +49522,19 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="N229" s="1" t="s">
+      <c r="O229" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P229" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P229" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="Q229" s="3">
         <v>28642</v>
@@ -49669,7 +49609,7 @@
         <v>108</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BB229" s="1">
         <v>7</v>
@@ -49687,10 +49627,10 @@
         <v>112</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>115</v>
@@ -49702,7 +49642,7 @@
         <v>156</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>119</v>
@@ -49720,13 +49660,13 @@
         <v>108</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>445</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="230" spans="1:83" x14ac:dyDescent="0.25">
@@ -49761,19 +49701,19 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="N230" s="1" t="s">
+      <c r="O230" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P230" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P230" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="Q230" s="3">
         <v>28239</v>
@@ -49845,7 +49785,7 @@
         <v>108</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BB230" s="1">
         <v>7</v>
@@ -49863,10 +49803,10 @@
         <v>112</v>
       </c>
       <c r="BH230" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="BI230" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="BI230" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>115</v>
@@ -49878,13 +49818,13 @@
         <v>212</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BS230" s="3">
         <v>36099</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>119</v>
@@ -49902,13 +49842,13 @@
         <v>108</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2523</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2524</v>
       </c>
     </row>
     <row r="231" spans="1:83" x14ac:dyDescent="0.25">
@@ -49943,19 +49883,19 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="N231" s="1" t="s">
+      <c r="O231" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P231" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="O231" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P231" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="Q231" s="3">
         <v>25589</v>
@@ -50027,7 +49967,7 @@
         <v>108</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="BB231" s="1">
         <v>7</v>
@@ -50045,10 +49985,10 @@
         <v>112</v>
       </c>
       <c r="BH231" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="BI231" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="BI231" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>115</v>
@@ -50060,13 +50000,13 @@
         <v>99</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BS231" s="3">
         <v>37735</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>119</v>
@@ -50084,13 +50024,13 @@
         <v>108</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="232" spans="1:83" x14ac:dyDescent="0.25">
@@ -50125,19 +50065,19 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="N232" s="1" t="s">
+      <c r="O232" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P232" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="O232" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P232" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="Q232" s="3">
         <v>29170</v>
@@ -50212,7 +50152,7 @@
         <v>108</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BB232" s="1">
         <v>7</v>
@@ -50230,7 +50170,7 @@
         <v>112</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1795</v>
@@ -50242,7 +50182,7 @@
         <v>103</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>119</v>
@@ -50260,13 +50200,13 @@
         <v>108</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>857</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="233" spans="1:83" x14ac:dyDescent="0.25">
@@ -50301,19 +50241,19 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="N233" s="1" t="s">
+      <c r="O233" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P233" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="O233" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P233" s="1" t="s">
-        <v>2549</v>
       </c>
       <c r="Q233" s="3">
         <v>27250</v>
@@ -50343,7 +50283,7 @@
         <v>104</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>1849</v>
@@ -50388,7 +50328,7 @@
         <v>108</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BB233" s="1">
         <v>7</v>
@@ -50406,7 +50346,7 @@
         <v>112</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BI233" s="1" t="s">
         <v>1795</v>
@@ -50418,7 +50358,7 @@
         <v>103</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>119</v>
@@ -50439,10 +50379,10 @@
         <v>1542</v>
       </c>
       <c r="CD233" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="CE233" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="CE233" s="1" t="s">
-        <v>2555</v>
       </c>
     </row>
     <row r="234" spans="1:83" x14ac:dyDescent="0.25">
@@ -50477,19 +50417,19 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="N234" s="1" t="s">
+      <c r="O234" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P234" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="O234" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P234" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="Q234" s="3">
         <v>27999</v>
@@ -50564,7 +50504,7 @@
         <v>108</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BB234" s="1">
         <v>7</v>
@@ -50582,10 +50522,10 @@
         <v>112</v>
       </c>
       <c r="BH234" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="BI234" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="BI234" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>115</v>
@@ -50594,7 +50534,7 @@
         <v>103</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>119</v>
@@ -50618,7 +50558,7 @@
         <v>934</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="235" spans="1:83" x14ac:dyDescent="0.25">
@@ -50653,19 +50593,19 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P235" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="O235" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P235" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="Q235" s="3">
         <v>29305</v>
@@ -50740,7 +50680,7 @@
         <v>108</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BB235" s="1">
         <v>7</v>
@@ -50758,10 +50698,10 @@
         <v>112</v>
       </c>
       <c r="BH235" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="BI235" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="BI235" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>115</v>
@@ -50770,7 +50710,7 @@
         <v>103</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>119</v>
@@ -50788,13 +50728,13 @@
         <v>108</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="CD235" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="CD235" s="1" t="s">
+      <c r="CE235" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="236" spans="1:83" x14ac:dyDescent="0.25">
@@ -50829,19 +50769,19 @@
         <v>328</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="N236" s="1" t="s">
+      <c r="O236" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P236" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="O236" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P236" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="R236" s="1" t="s">
         <v>131</v>
@@ -50877,7 +50817,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -50916,13 +50856,13 @@
         <v>112</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>119</v>
@@ -50940,13 +50880,13 @@
         <v>108</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>309</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="237" spans="1:83" x14ac:dyDescent="0.25">
@@ -50981,19 +50921,19 @@
         <v>93</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="N237" s="1" t="s">
+      <c r="O237" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P237" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="O237" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P237" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="Q237" s="3">
         <v>23125</v>
@@ -51029,7 +50969,7 @@
         <v>42247</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>104</v>
@@ -51083,7 +51023,7 @@
         <v>17</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>110</v>
@@ -51095,10 +51035,10 @@
         <v>112</v>
       </c>
       <c r="BH237" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="BI237" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="BI237" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>115</v>
@@ -51110,13 +51050,13 @@
         <v>212</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BS237" s="3">
         <v>36580</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>119</v>
@@ -51137,7 +51077,7 @@
         <v>108</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>298</v>
@@ -51178,19 +51118,19 @@
         <v>93</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="L238" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="L238" s="1" t="s">
+      <c r="N238" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="N238" s="1" t="s">
+      <c r="O238" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P238" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="O238" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P238" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="Q238" s="3">
         <v>30023</v>
@@ -51280,10 +51220,10 @@
         <v>112</v>
       </c>
       <c r="BH238" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="BI238" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="BI238" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>115</v>
@@ -51295,13 +51235,13 @@
         <v>116</v>
       </c>
       <c r="BR238" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BS238" s="3">
         <v>37747</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>119</v>
@@ -51325,7 +51265,7 @@
         <v>668</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="239" spans="1:83" x14ac:dyDescent="0.25">
@@ -51360,19 +51300,19 @@
         <v>93</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="L239" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="N239" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="N239" s="1" t="s">
+      <c r="O239" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P239" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P239" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="Q239" s="3">
         <v>26205</v>
@@ -51462,7 +51402,7 @@
         <v>112</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>1966</v>
@@ -51474,7 +51414,7 @@
         <v>103</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>119</v>
@@ -51492,13 +51432,13 @@
         <v>108</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="CD239" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CD239" s="1" t="s">
+      <c r="CE239" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="240" spans="1:83" x14ac:dyDescent="0.25">
@@ -51533,19 +51473,19 @@
         <v>93</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L240" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="N240" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="N240" s="1" t="s">
+      <c r="O240" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P240" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="O240" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P240" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="Q240" s="3">
         <v>31662</v>
@@ -51635,10 +51575,10 @@
         <v>112</v>
       </c>
       <c r="BH240" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="BI240" s="1" t="s">
         <v>2617</v>
-      </c>
-      <c r="BI240" s="1" t="s">
-        <v>2618</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>115</v>
@@ -51647,7 +51587,7 @@
         <v>103</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>119</v>
@@ -51665,13 +51605,13 @@
         <v>108</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CD240" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CE240" s="1" t="s">
         <v>2621</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2622</v>
       </c>
     </row>
     <row r="241" spans="1:83" x14ac:dyDescent="0.25">
@@ -51706,19 +51646,19 @@
         <v>93</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L241" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="N241" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="N241" s="1" t="s">
+      <c r="O241" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P241" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="O241" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P241" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="Q241" s="3">
         <v>29117</v>
@@ -51808,10 +51748,10 @@
         <v>112</v>
       </c>
       <c r="BH241" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="BI241" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="BI241" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>115</v>
@@ -51823,13 +51763,13 @@
         <v>99</v>
       </c>
       <c r="BR241" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BS241" s="3">
         <v>37334</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>119</v>
@@ -51850,10 +51790,10 @@
         <v>534</v>
       </c>
       <c r="CD241" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2631</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="242" spans="1:83" x14ac:dyDescent="0.25">
@@ -51888,19 +51828,19 @@
         <v>93</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L242" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P242" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="O242" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="Q242" s="3">
         <v>30007</v>
@@ -51990,10 +51930,10 @@
         <v>112</v>
       </c>
       <c r="BH242" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="BI242" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="BI242" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>115</v>
@@ -52005,13 +51945,13 @@
         <v>99</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BS242" s="3">
         <v>37904</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>119</v>
@@ -52032,10 +51972,10 @@
         <v>934</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="CE242" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="CE242" s="1" t="s">
-        <v>2642</v>
       </c>
     </row>
     <row r="243" spans="1:83" x14ac:dyDescent="0.25">
@@ -52070,19 +52010,19 @@
         <v>93</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="L243" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="N243" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="N243" s="1" t="s">
+      <c r="O243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P243" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P243" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="Q243" s="3">
         <v>26221</v>
@@ -52169,7 +52109,7 @@
         <v>112</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>1966</v>
@@ -52184,13 +52124,13 @@
         <v>116</v>
       </c>
       <c r="BR243" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BS243" s="3">
         <v>36111</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>119</v>
@@ -52208,13 +52148,13 @@
         <v>108</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="244" spans="1:83" x14ac:dyDescent="0.25">
@@ -52249,19 +52189,19 @@
         <v>93</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L244" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="L244" s="1" t="s">
+      <c r="N244" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="N244" s="1" t="s">
+      <c r="O244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P244" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="O244" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P244" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="Q244" s="3">
         <v>27571</v>
@@ -52351,10 +52291,10 @@
         <v>112</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BI244" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>115</v>
@@ -52366,13 +52306,13 @@
         <v>116</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BS244" s="3">
         <v>37785</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>119</v>
@@ -52390,13 +52330,13 @@
         <v>108</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CD244" s="1" t="s">
         <v>2659</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CE244" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="245" spans="1:83" x14ac:dyDescent="0.25">
@@ -52431,19 +52371,19 @@
         <v>93</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L245" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="N245" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="N245" s="1" t="s">
+      <c r="O245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P245" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="O245" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P245" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="Q245" s="3">
         <v>30041</v>
@@ -52533,7 +52473,7 @@
         <v>112</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>115</v>
@@ -52542,7 +52482,7 @@
         <v>103</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>119</v>
@@ -52563,10 +52503,10 @@
         <v>1230</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="CE245" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2669</v>
       </c>
     </row>
     <row r="246" spans="1:83" x14ac:dyDescent="0.25">
@@ -52604,10 +52544,10 @@
         <v>257</v>
       </c>
       <c r="L246" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>259</v>
@@ -52640,7 +52580,7 @@
         <v>42582</v>
       </c>
       <c r="AD246" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="AF246" s="1" t="s">
         <v>104</v>
@@ -52691,10 +52631,10 @@
         <v>261</v>
       </c>
       <c r="BH246" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="BI246" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="BI246" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>115</v>
@@ -52768,16 +52708,16 @@
         <v>93</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="L247" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="M247" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="M247" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="Q247" s="3">
         <v>17060</v>
@@ -52813,7 +52753,7 @@
         <v>42628</v>
       </c>
       <c r="AD247" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AF247" s="1" t="s">
         <v>104</v>
@@ -52864,16 +52804,16 @@
         <v>108</v>
       </c>
       <c r="AZ247" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BD247" s="1" t="s">
         <v>225</v>
       </c>
       <c r="BH247" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="BI247" s="1" t="s">
         <v>2680</v>
-      </c>
-      <c r="BI247" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>115</v>
@@ -52882,7 +52822,7 @@
         <v>103</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>119</v>
@@ -52906,7 +52846,7 @@
         <v>123</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="248" spans="1:83" x14ac:dyDescent="0.25">
@@ -52941,16 +52881,16 @@
         <v>93</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L248" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="L248" s="1" t="s">
+      <c r="M248" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="Q248" s="3">
         <v>26864</v>
@@ -52980,7 +52920,7 @@
         <v>42735</v>
       </c>
       <c r="AD248" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="AF248" s="1" t="s">
         <v>104</v>
@@ -53031,7 +52971,7 @@
         <v>99</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>115</v>
@@ -53043,13 +52983,13 @@
         <v>212</v>
       </c>
       <c r="BR248" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BS248" s="3">
         <v>102</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>119</v>
@@ -53070,13 +53010,13 @@
         <v>108</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="CD248" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CE248" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>2693</v>
       </c>
     </row>
     <row r="249" spans="1:83" x14ac:dyDescent="0.25">
@@ -53111,16 +53051,16 @@
         <v>93</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="M249" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="Q249" s="3">
         <v>17041</v>
@@ -53147,7 +53087,7 @@
         <v>42735</v>
       </c>
       <c r="AD249" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="AF249" s="1" t="s">
         <v>104</v>
@@ -53198,7 +53138,7 @@
         <v>108</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>115</v>
@@ -53207,7 +53147,7 @@
         <v>103</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>119</v>
@@ -53228,13 +53168,13 @@
         <v>108</v>
       </c>
       <c r="CC249" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="CD249" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="CD249" s="1" t="s">
+      <c r="CE249" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2701</v>
       </c>
     </row>
     <row r="250" spans="1:83" x14ac:dyDescent="0.25">
@@ -53269,16 +53209,16 @@
         <v>93</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L250" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="L250" s="1" t="s">
+      <c r="M250" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="M250" s="1" t="s">
-        <v>2671</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="Q250" s="3">
         <v>25379</v>
@@ -53308,7 +53248,7 @@
         <v>39800</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>232</v>
@@ -53359,7 +53299,7 @@
         <v>99</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>115</v>
@@ -53371,13 +53311,13 @@
         <v>223</v>
       </c>
       <c r="BR250" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BS250" s="3">
         <v>35915</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>119</v>
@@ -53407,10 +53347,11 @@
         <v>457</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF250" xr:uid="{642D478E-EC1A-4462-B46C-2822922D185E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>